--- a/biology/Médecine/Nerf_ano-coccygien/Nerf_ano-coccygien.xlsx
+++ b/biology/Médecine/Nerf_ano-coccygien/Nerf_ano-coccygien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le nerf ano-coccygien est un nerf mixte du bassin.
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ano-coccygien est la branche terminale du plexus coccygien.
 </t>
@@ -543,11 +557,11 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ano-coccygien traverse le muscle coccygien et le ligament sacro-tubéral pour se terminer dans le faisceau inférieur du muscle grand glutéal et dans les téguments situés entre le coccyx et l'anus.
-Variation
-Il peut exister entre un et trois nerfs ano-coccygiens[1].
 </t>
         </is>
       </c>
@@ -573,13 +587,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Variation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut exister entre un et trois nerfs ano-coccygiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_ano-coccygien</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_ano-coccygien</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ano-coccygien contribue à l'innervation du muscle coccygien.
-Il assure l'innervation sensorielle de la peau au niveau du coccyx[2] et de l'articulation sacrococcygienne.
+Il assure l'innervation sensorielle de la peau au niveau du coccyx et de l'articulation sacrococcygienne.
 </t>
         </is>
       </c>
